--- a/학습자료/단답형/오답노트/오답노트_테스트_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_테스트_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,14 +475,35 @@
 3)상대 없이는 싸움이 일어나지 않음을 이르는 말</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20230107</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>09시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>莫無可奈</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>막무가내| 도무지 어찌할 수 없음</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08시 33분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_테스트_단답형_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_테스트_단답형_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,14 +496,151 @@
           <t>막무가내| 도무지 어찌할 수 없음</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D3" t="n">
+        <v>20230108</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>08시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>狐假虎威</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>호가호위 | 
+「여우가 호랑이의 위세를 빌려 호기를 부린다」
+ 남의 세력을 빌어 위세를 부림</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>辟邪進慶</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>귤화위지</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>벽사진경| 사귀를 쫓고 경사로운 일을 맞이함</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>염화미소| 
+「꽃을 집어 들고 웃음을 띠다」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전하는 일을 이르는 말 불교에서 이심전심의 뜻으로 쓰이는 말</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>命在頃刻</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>명재경각| 
+「목숨이 경각에 달렸다」
+ 숨이 곧 끊어질 지경에 이름 거의 죽게 됨</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>街談巷說</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>가담항설| 
+1) 길거리나 세상 사람들 사이에 떠도는 이야기
+2) 세상에 떠도는 뜬 소문</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20230110</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
         </is>
       </c>
     </row>
